--- a/servicemenu/output/ServiceMenu.xlsx
+++ b/servicemenu/output/ServiceMenu.xlsx
@@ -760,6 +760,19 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="2.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="2.171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="2.171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="2.171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="2.171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.36328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.41015625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="10.39453125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.203125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="9.84765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.21875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="n" s="1">

--- a/servicemenu/output/ServiceMenu.xlsx
+++ b/servicemenu/output/ServiceMenu.xlsx
@@ -767,10 +767,10 @@
     <col min="4" max="4" width="2.171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="2.171875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="9.36328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.41015625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="10.39453125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.203125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="9.84765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.5078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.92578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.765625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="23.3046875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="11.21875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
